--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="iPhone-6 Brian" r:id="rId3" sheetId="1"/>
     <sheet name="iPhone-6 Raj" r:id="rId4" sheetId="2"/>
+    <sheet name="iPhone-6 Avner" r:id="rId5" sheetId="3"/>
+    <sheet name="iPhone-6 null" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -31,6 +33,12 @@
   </si>
   <si>
     <t>testSignIn, avnerg@perfectomobile.com, a1001a, Hi, Avner!</t>
+  </si>
+  <si>
+    <t>Avner 3.06</t>
+  </si>
+  <si>
+    <t>Avner 3.07</t>
   </si>
 </sst>
 </file>
@@ -77,8 +85,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -187,4 +209,119 @@
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="20">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -77,8 +77,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -109,7 +115,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
     </row>
@@ -117,7 +123,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="9">
         <v>3</v>
       </c>
     </row>
@@ -125,7 +131,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="12">
         <v>3</v>
       </c>
     </row>
@@ -159,7 +165,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="8">
         <v>3</v>
       </c>
     </row>
@@ -167,7 +173,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="10">
         <v>3</v>
       </c>
     </row>
@@ -175,7 +181,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="11">
         <v>3</v>
       </c>
     </row>

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -24,6 +24,21 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Avner 3.07</t>
+  </si>
+  <si>
+    <t>testSignIn, avnerg@perfectomobile.com, a1001a, Hi, Avner!</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Avner 3.08</t>
+  </si>
+  <si>
+    <t>testSignIn, dudu@gulu.com, , Hi, Mister!</t>
   </si>
 </sst>
 </file>
@@ -40,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +72,16 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,8 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -84,6 +113,12 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.0234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -91,6 +126,12 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -101,9 +142,29 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -7,12 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="iPhone-6 Brian" r:id="rId3" sheetId="1"/>
+    <sheet name="Galaxy S5 SM-G900A ShirNate" r:id="rId4" sheetId="2"/>
+    <sheet name="iPhone-6 ShirNate" r:id="rId5" sheetId="3"/>
+    <sheet name="iPhone-6 Avner" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>testSignIn, dudu@gulu.com, , Hi, Mister!</t>
+  </si>
+  <si>
+    <t>Avner 3.10</t>
   </si>
 </sst>
 </file>
@@ -95,12 +101,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -168,4 +186,139 @@
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="16">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>googleTest</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -108,6 +111,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -163,12 +169,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -225,6 +240,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -245,7 +268,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
-    <col min="3" max="3" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -283,6 +306,14 @@
         <v>6</v>
       </c>
       <c r="C4" t="s" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="14">
         <v>7</v>
       </c>
     </row>

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Galaxy S5 SM-G900A ShirNate" r:id="rId3" sheetId="1"/>
     <sheet name="iPhone-6 Avner" r:id="rId4" sheetId="2"/>
     <sheet name="iPhone-6 Raj" r:id="rId5" sheetId="3"/>
+    <sheet name="null" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -97,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -112,6 +113,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -244,7 +247,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="17">
         <v>7</v>
       </c>
     </row>
@@ -253,6 +256,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -313,7 +317,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="16">
         <v>7</v>
       </c>
     </row>
@@ -322,7 +326,29 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -10,12 +10,14 @@
     <sheet name="iPhone-6 Avner" r:id="rId4" sheetId="2"/>
     <sheet name="iPhone-6 Raj" r:id="rId5" sheetId="3"/>
     <sheet name="null" r:id="rId6" sheetId="4"/>
+    <sheet name="iPhone-6 ShirNate" r:id="rId7" sheetId="5"/>
+    <sheet name="iPhone-6 null" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -42,6 +44,9 @@
   </si>
   <si>
     <t>googleTest</t>
+  </si>
+  <si>
+    <t>Avner 1.15</t>
   </si>
 </sst>
 </file>
@@ -98,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -117,6 +122,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -132,6 +160,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="4" max="4" width="10.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -144,6 +173,9 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -160,7 +192,10 @@
       <c r="B3" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="34">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s" s="39">
         <v>3</v>
       </c>
     </row>
@@ -168,15 +203,18 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>3</v>
+      <c r="C4" t="s" s="30">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="35">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="22">
         <v>3</v>
       </c>
     </row>
@@ -187,6 +225,12 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C3" r:id="rId4"/>
     <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="D3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -203,6 +247,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -215,6 +260,9 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -231,7 +279,10 @@
       <c r="B3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" t="s" s="26">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s" s="38">
         <v>3</v>
       </c>
     </row>
@@ -239,7 +290,10 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="36">
         <v>7</v>
       </c>
     </row>
@@ -247,7 +301,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="17">
+      <c r="C5" t="s" s="21">
         <v>7</v>
       </c>
     </row>
@@ -257,6 +311,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -351,4 +409,114 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="29">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="32">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s" s="40">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="33">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Avner 1.15</t>
+  </si>
+  <si>
+    <t>Raj 3.03</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -142,6 +145,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -160,7 +166,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
-    <col min="4" max="4" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,6 +182,9 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -208,6 +217,9 @@
       </c>
       <c r="D4" t="s" s="35">
         <v>7</v>
+      </c>
+      <c r="E4" t="s" s="43">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -231,6 +243,7 @@
     <hyperlink ref="C3" r:id="rId9"/>
     <hyperlink ref="C3" r:id="rId10"/>
     <hyperlink ref="D3" r:id="rId11"/>
+    <hyperlink ref="E4" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -248,6 +261,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.0234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -263,6 +277,9 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -285,6 +302,9 @@
       <c r="D3" t="s" s="38">
         <v>3</v>
       </c>
+      <c r="E3" t="s" s="42">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -295,6 +315,9 @@
       </c>
       <c r="D4" t="s" s="36">
         <v>7</v>
+      </c>
+      <c r="E4" t="s" s="41">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -315,6 +338,8 @@
     <hyperlink ref="C5" r:id="rId6"/>
     <hyperlink ref="C3" r:id="rId7"/>
     <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -12,12 +12,14 @@
     <sheet name="null" r:id="rId6" sheetId="4"/>
     <sheet name="iPhone-6 ShirNate" r:id="rId7" sheetId="5"/>
     <sheet name="iPhone-6 null" r:id="rId8" sheetId="6"/>
+    <sheet name="fullDetails" r:id="rId9" sheetId="7"/>
+    <sheet name="Galaxy S5 SM-G900A Avner" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="137">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -47,6 +49,387 @@
   </si>
   <si>
     <t>Avner 1.15</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>offlineCharging</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>resolutionHeight</t>
+  </si>
+  <si>
+    <t>openRequestsQueue</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>deviceId</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>wifiMacAddress</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>templateBaseName</t>
+  </si>
+  <si>
+    <t>openingStatus</t>
+  </si>
+  <si>
+    <t>cradleId</t>
+  </si>
+  <si>
+    <t>lockedBy</t>
+  </si>
+  <si>
+    <t>osVersion</t>
+  </si>
+  <si>
+    <t>testCycle</t>
+  </si>
+  <si>
+    <t>testParameters</t>
+  </si>
+  <si>
+    <t>inUse</t>
+  </si>
+  <si>
+    <t>lastUsedBy</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>releaseDate</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>lastUsedAtFormatted</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>lastCradleId</t>
+  </si>
+  <si>
+    <t>lastUsedAt</t>
+  </si>
+  <si>
+    <t>imei</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>resolutionWidth</t>
+  </si>
+  <si>
+    <t>testResult</t>
+  </si>
+  <si>
+    <t>shunraIp</t>
+  </si>
+  <si>
+    <t>operabilityRatingScore</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>resourceType</t>
+  </si>
+  <si>
+    <t>Apple-iPhone-6-IOS8</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>SA-Avner], powerSupply, [source, SERVER, offlineCharging, DEFAULT</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>750x1334</t>
+  </si>
+  <si>
+    <t>3133BB296C46FA2250362A227BA462A56ED11A45</t>
+  </si>
+  <si>
+    <t>Verizon-United States of America</t>
+  </si>
+  <si>
+    <t>48:43:7c:c9:0b:4d</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apple-iPhone-6</t>
+  </si>
+  <si>
+    <t>OPENED</t>
+  </si>
+  <si>
+    <t>WF-CG29-64/005230/01</t>
+  </si>
+  <si>
+    <t>avnerg@perfectomobile.com</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>avnerg@perfectomobile.com, a1001a, Hi, Avner!</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>iPhone-6</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>testSignIn</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>17.09.2014</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>IOS8</t>
+  </si>
+  <si>
+    <t>2015-10-13:08-27-30</t>
+  </si>
+  <si>
+    <t>+1 (781) 460-0297</t>
+  </si>
+  <si>
+    <t>1444724850431</t>
+  </si>
+  <si>
+    <t>NA-US-BOS</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:27:48</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>1.0.29.4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>CONNECTED</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>johndoe@perfectomobile.com, yyyyy, Hi, John!</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:28:37</t>
+  </si>
+  <si>
+    <t>2015-10-13:08-29-43</t>
+  </si>
+  <si>
+    <t>1444724983105</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:30:14</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:30:51</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2015-10-13:08-47-33</t>
+  </si>
+  <si>
+    <t>1444726053055</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:47:59</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:48:35</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2015-10-13:08-55-08</t>
+  </si>
+  <si>
+    <t>1444726508373</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:55:35</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:56:12</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S5 SM-G900A-ATT-US</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1080x1920</t>
+  </si>
+  <si>
+    <t>A1A5438E</t>
+  </si>
+  <si>
+    <t>78:4b:87:4b:0d:51</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S5 SM-G900A</t>
+  </si>
+  <si>
+    <t>WF-CG29-62/005320/01</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>Galaxy S5 SM-G900A</t>
+  </si>
+  <si>
+    <t>klteuc-user 4.4.2 KOT49H G900AUCU1ANCE release-keys</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>20.02.2014</t>
+  </si>
+  <si>
+    <t>ATT-US</t>
+  </si>
+  <si>
+    <t>2015-10-13:08-57-49</t>
+  </si>
+  <si>
+    <t>1444726669140</t>
+  </si>
+  <si>
+    <t>2015-10-13 11:58:07</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>2015-10-13:09-02-15</t>
+  </si>
+  <si>
+    <t>1444726935691</t>
+  </si>
+  <si>
+    <t>2015-10-13 12:02:42</t>
+  </si>
+  <si>
+    <t>2015-10-13:09-04-16</t>
+  </si>
+  <si>
+    <t>1444727056239</t>
+  </si>
+  <si>
+    <t>2015-10-13 12:04:33</t>
+  </si>
+  <si>
+    <t>2015-10-13 12:05:36</t>
   </si>
 </sst>
 </file>
@@ -103,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -145,6 +528,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -160,7 +553,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
-    <col min="4" max="4" width="10.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -244,10 +637,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="54.8359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.25390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7890625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7890625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -263,6 +659,18 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -285,6 +693,15 @@
       <c r="D3" t="s" s="38">
         <v>3</v>
       </c>
+      <c r="E3" t="s" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s" s="46">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s" s="48">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -296,6 +713,15 @@
       <c r="D4" t="s" s="36">
         <v>7</v>
       </c>
+      <c r="E4" t="s" s="43">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="45">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s" s="47">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -303,6 +729,22 @@
       </c>
       <c r="C5" t="s" s="21">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="42">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -315,6 +757,14 @@
     <hyperlink ref="C5" r:id="rId6"/>
     <hyperlink ref="C3" r:id="rId7"/>
     <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="F4" r:id="rId13"/>
+    <hyperlink ref="F3" r:id="rId14"/>
+    <hyperlink ref="G4" r:id="rId15"/>
+    <hyperlink ref="G3" r:id="rId16"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -519,4 +969,2343 @@
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T10" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="54.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="50">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -14,12 +14,13 @@
     <sheet name="iPhone-6 null" r:id="rId8" sheetId="6"/>
     <sheet name="fullDetails" r:id="rId9" sheetId="7"/>
     <sheet name="Galaxy S5 SM-G900A Avner" r:id="rId10" sheetId="8"/>
+    <sheet name="Chrome" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="138">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -430,6 +431,9 @@
   </si>
   <si>
     <t>2015-10-13 12:05:36</t>
+  </si>
+  <si>
+    <t>2.86</t>
   </si>
 </sst>
 </file>
@@ -644,6 +648,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3273,8 +3278,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.04296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.04296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3283,6 +3289,9 @@
       </c>
       <c r="B1" t="s">
         <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -3308,4 +3317,29 @@
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.3203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.94921875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="138">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -649,6 +649,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -675,6 +676,9 @@
       </c>
       <c r="H1" t="s">
         <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -3327,8 +3331,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.3203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="138">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -864,6 +864,9 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -3285,9 +3285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="54.04296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.28125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.8125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -3285,9 +3285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="54.734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.28125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.8125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.04296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.94921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
